--- a/finetuning/it_datasets/it_dataset/it_gabes_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_gabes_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out El Majless coffee lounge located at Rte de Gabes, Kebili. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/El+Majless+coffee+lounge/data=!4m7!3m6!1s0x12566e5e13f78853:0x66f8f60e320c55f0!8m2!3d33.7142489!4d8.9732555!16s%2Fg%2F11c74c96yy!19sChIJU4j3E15uVhIR8FUMMg72-GY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 494 420.</t>
+          <t>El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a great cup of coffee, stop by Cafe Royale, located at PX8F+9C3 Rte de Gabes, Qibili. This top-rated cafe is a must-visit spot for coffee lovers. With a rating of 4.6, it's a great place to relax and enjoy a delicious cup of coffee. Cafe Royale is open from 5:30 AM to 11:30 PM during weekdays and has a featured image available at https://lh5.googleusercontent.com/p/AF1QipMZMMQxrrnsWUY4WvK19w_MoppB_ZiAGNaTE3Jo=w426-h240-k-no. For more information, visit their website or call them at 20 187 027.</t>
+          <t>Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.</t>
         </is>
       </c>
     </row>
@@ -856,9 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for something fun to do, check out Costa Cafe crepe located at Rte de Gabes, Kebili. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/Costa+Caf%C3%A9+crepe/data=!4m7!3m6!1s0x12566f82576edd21:0x62a6968797ed6b97!8m2!3d33.7114704!4d8.9720476!16s%2Fg%2F11jmpwfzw0!19sChIJId1uV4JvVhIRl2vtl4eWpmI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -949,7 +947,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great Cafe, check out Cafe EZZAHRA located at 9F3H+VJ7 Cafe EZZAHRA, Route de Gabes,, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+EZZAHRA/data=!4m7!3m6!1s0x1255282a283b7a07:0x78a5269b9a4ff8db!8m2!3d33.354659!4d10.4790512!16s%2Fg%2F11c489xfxz!19sChIJB3o7KCooVRIR2_hPmpsmpXg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -1052,9 +1050,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Rio Cafe located at Rio Cafe, km 1 Rte de Gabes, Sfax 3000.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.750047, 10.7579758. For more details, call them at 22 301 592.</t>
+          <t>Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1149,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a fantastic Cafe experience, Cafe Bonjour on Rte de Gabes is the perfect spot for you. This top-rated destination offers a delightful range of Cafe options to choose from, making it a must-visit for any Cafe lover. With a rating of 4.0, it's a highly recommended spot. Cafe Bonjour is open daily from 6 AM to 11 PM, so you can enjoy their offerings anytime. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
+          <t>Cafe Bonjour, a highly-rated cafe located at PPGQ+5PF, Rte de Gabes, Sfax, is a great spot to relax and enjoy a cup of coffee. It operates from 6am to 11pm daily and has earned a 4.0 rating from satisfied customers. You can find additional information on their official website or by visiting their location directly.</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1252,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to stay, check out Hotel l'Oasis Gabes 4 etoiles located at Av.Habib Thameur, Gabes 6000. This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://hoteloasisgabes.com/ or call them at 75 270 381.</t>
+          <t>Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1355,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated hotel, check out Hotel l'Oasis Gabes 4 etoiles located at Av.Habib Thameur, Gabes 6000. This destination is perfect for Hotel lovers and has a rating of 4.3. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://hoteloasisgabes.com/ or call them at 75 270 381.</t>
+          <t>Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1458,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to stay, consider Hotel l'Oasis Gabes 4 etoiles, located at Av.Habib Thameur, Gabes 6000. This top-rated hotel is perfect for travelers seeking a comfortable and convenient stay. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://hoteloasisgabes.com/ or call them at 75 270 381.</t>
+          <t>Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1557,8 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated hotel, consider Hotel BEN NJIMA located at V3PR+3MM Hotel BEN NJIMA, nhj `ly jml, Gabes 6002. This 5-star hotel is perfect for travelers seeking a comfortable and convenient stay. With a rating of 5.0, it's a must-visit spot for those looking for a luxurious hotel experience. To get there, use these GPS coordinates: 47.049555, 8.3123493. For more details, visit their website at https://www.google.com/maps/place/H%C3%B4tel+BEN+NJIMA/data=!4m10!3m9!1s0x12556fdad26eee81:0x3ebc572dce1dd2fc!5m2!4m1!1i2!8m2!3d33.8852148!4d10.0916838!16s%2Fg%2F11rrz5wpn!19sChIJge5u0tpvVRIR_NIdzi1XvD4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 271 591.</t>
+          <t>**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.</t>
         </is>
       </c>
     </row>
@@ -1664,9 +1661,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great hotel, check out Hotel l'Oasis Gabes 4 etoiles located at Av.Habib Thameur, Gabes 6000. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://hoteloasisgabes.com/ or call them at 75 270 381.</t>
+          <t>Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1764,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Restaurant Fruit De Mer located at Restaurant Fruit De Mer, Gabes. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:15-23:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Fruit+De+Mer/data=!4m7!3m6!1s0x12556f97c1b79081:0x9ec91aec549d79b9!8m2!3d33.893495!4d10.112805!16s%2Fg%2F11ddwp8y6y!19sChIJgZC3wZdvVRIRuXmdVOwayZ4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 507 323.</t>
+          <t>Restaurant Fruit De Mer is a dining establishment in Gabes, Tunisia. It has a 4.0 rating based on 119 reviews, and is open from 11:15 AM to 11:00 PM. The restaurant offers a variety of seafood dishes and is known for its affordable prices, fresh fish, attentive service and family-friendly atmosphere. It is located at Gabes, Tunisia, and can be contacted at 98 507 323.</t>
         </is>
       </c>
     </row>
@@ -1872,9 +1867,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a great restaurant, check out Restaurant Palais de la mer located at V4V7+GW3 Restaurant Palais de la mer, Av.Habib Thameur. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:30-23:30. To get there, use these GPS coordinates: 33.88997552981, 10.112436063016. For more details, visit their website or call them at 75 271 142.</t>
+          <t>The Restaurant Palais de la mer in Gabes, Tunisia, with coordinates (33.893769, 10.1147988), offers a specialized culinary experience centered around fish dishes, as highlighted by its reviews. Open from 11:30 to 23:30 during the week, it has received a high rating of 4.5 based on 35 reviews.</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1962,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated place, check out plage el Kazma Gabes located at plage el Kazma Gabes. This destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.3, it's a must-visit spot.  To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.</t>
         </is>
       </c>
     </row>
@@ -2064,8 +2057,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in gabes and searching for a top-rated Port, be certain to take a look at Port de peche de Gabes at Port de peche de Gabes. This place is a must-visit spot with a rating of 4.6. Use the coordinates (33.8941017, 10.1138583) to get there using GPS. For more details, take a look at the link below:
-https://www.google.com/maps/place/Port+de+p%C3%AAche+de+Gab%C3%A9s/data=!4m7!3m6!1s0x12556f99bba979ef:0x173467aa5be9c825!8m2!3d33.8957021!4d10.1162302!16s%2Fg%2F1211psly!19sChIJ73mpu5lvVRIRJcjpW6pnNBc?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.</t>
         </is>
       </c>
     </row>
@@ -2160,9 +2152,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out plage corniche de gabes located at plage corniche de gabes. 
-This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. 
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.903174189274, 10.105527429198. For more details, visit their website at https://www.google.com/maps/place/plage+corniche+de+gab%C3%A8s/data=!4m7!3m6!1s0x12556fa213cb1dc1:0x3c2078721885641c!8m2!3d33.8909888!4d10.118692!16s%2Fg%2F11b6b6sz4j!19sChIJwR3LE6JvVRIRHGSFGHJ4IDw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.</t>
         </is>
       </c>
     </row>
@@ -2269,9 +2259,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a place related to 'Administration locale', check out Region Maritime de Gabes (OMMP) ljh@ lbHry@ bqbs located at Av.Habib Thameur, Gabes 6000. 
-This top-rated destination is perfect for Administration locale and Administration publique regionale lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:15-12:15, 13:00-17:15, but closed on samedi, dimanche. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://www.ommp.nat.tn/ or call them at 75 270 969.</t>
+          <t>The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2358,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a fun-filled day out, check out Ras El Oueed located at Ras El Oueed, Zoo Chenenni, Gabes. This top-rated destination, perfect for lovers of tourist attractions, offers a range of experiences to choose from. With a rating of 4.2, Ras El Oueed is a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 33.87861, 10.0618. For more details, visit the website at https://www.google.com/maps/place/Ras+El+Oueed/data=!4m7!3m6!1s0x125571b3cf9092bd:0x1973856a53a8e8d9!8m2!3d33.8664717!4d10.0450059!16s%2Fg%2F11c2q3h_66!19sChIJvZKQz7NxVRIR2eioU2qFcxk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.</t>
         </is>
       </c>
     </row>
@@ -2465,9 +2453,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Mchergui farm located at V3GH+FRR Mchergui farm, Rue de l'oasis, Gabes. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.86083082856, 10.099978627695. For more details, visit their website at https://www.google.com/maps/place/Mchergui+farm/data=!4m7!3m6!1s0x1255714f9e3bc009:0x8e97e5514fcec17d!8m2!3d33.87625!4d10.0795067!16s%2Fg%2F11v00tj264!19sChIJCcA7nk9xVRIRfcHOT1Hll44?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).</t>
         </is>
       </c>
     </row>
@@ -2562,11 +2548,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Port de peche de Gabes located at Port de peche de Gabes. 
-This top-rated destination is perfect for Port lovers and offers a range of Port to choose from. 
-With a rating of 4.6, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.8941017, 10.1138583. 
-For more details, visit their website at https://www.google.com/maps/place/Port+de+p%C3%AAche+de+Gab%C3%A9s/data=!4m7!3m6!1s0x12556f99bba979ef:0x173467aa5be9c825!8m2!3d33.8957021!4d10.1162302!16s%2Fg%2F1211psly!19sChIJ73mpu5lvVRIRJcjpW6pnNBc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2647,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking to explore a top-rated tourist attraction, head to Ras El Oueed. This must-visit destination offers a range of attractions for all ages. Open from 8 AM to 1 AM, it's easy to find using the GPS coordinates (33.87861, 10.0618). For more details, visit their website at https://www.google.com/maps/place/Ras+El+Oueed/data=!4m7!3m6!1s0x125571b3cf9092bd:0x1973856a53a8e8d9!8m2!3d33.8664717!4d10.0450059!16s%2Fg%2F11c2q3h_66!19sChIJvZKQz7NxVRIR2eioU2qFcxk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.</t>
         </is>
       </c>
     </row>
@@ -2760,12 +2742,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for an exciting experience, head to Mchergui farm, located at Rue de l'oasis. 
-This top-rated tourist attraction offers a unique and immersive experience for visitors. 
-With a rating of 4.7, it's a must-visit spot. 
-The farm is open during weekday hours, but closed on specific days. 
-To get there, use the GPS coordinates: 33.86083082856, 10.099978627695. 
-For more details, visit the owner's website at https://www.google.com/maps/place/Mchergui+farm/data=!4m7!3m6!1s0x1255714f9e3bc009:0x8e97e5514fcec17d!8m2!3d33.87625!4d10.0795067!16s%2Fg%2F11v00tj264!19sChIJCcA7nk9xVRIRfcHOT1Hll44?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.</t>
         </is>
       </c>
     </row>
@@ -2860,9 +2837,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out plage el Kazma Gabes located at plage el Kazma Gabes. 
-This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2932,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in gabes  and seeking some maritime adventure, head to Port de peche de Gabes located at Port de peche de Gabes. This highly acclaimed port is perfect for seafaring adventurers. With a 4.6 rating, it's a not-to-be-missed spot. To get there, use these GPS coordinates:  33.8941017, 10.1138583.</t>
+          <t>The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3027,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out plage corniche de gabes located at plage corniche de gabes. This top-rated destination is perfect for Plage lovers and offers a range of categories. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.903174189274, 10.105527429198. For more details, visit their link at https://www.google.com/maps/place/plage+corniche+de+gab%C3%A8s/data=!4m7!3m6!1s0x12556fa213cb1dc1:0x3c2078721885641c!8m2!3d33.8909888!4d10.118692!16s%2Fg%2F11b6b6sz4j!19sChIJwR3LE6JvVRIRHGSFGHJ4IDw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.</t>
         </is>
       </c>
     </row>
@@ -3143,9 +3118,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a nice Point d'eau, check out oued griaa located at oued griaa, Gabes. 
-This top-rated destination is perfect for Point d'eau lovers. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.888301388934, 10.106418468977.</t>
+          <t>Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3236,8 +3209,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a refreshing source of water, check out `wyn@ located at `wyn@, Gabes. 
-This top-rated destination is perfect for Source d'eau lovers and offers a rating of 3.7.  To get there, use these GPS coordinates: 39.631738, -75.657103.</t>
+          <t>Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3300,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Oued de Gabes located at Oued de Gabes, Gabes. This top-rated destination is perfect for Cours d'eau lovers and offers a range of categories to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9, 10.11667. For more details, visit their website at https://www.google.com/maps/place/Oued+de+Gab%C3%A8s/data=!4m7!3m6!1s0x12556fdb10733d37:0xbf29a80616e9193b!8m2!3d33.8866669!4d10.0895154!16s%2Fg%2F11byvhg3b2!19sChIJNz1zENtvVRIROxnpFgaoKb8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Oued de Gabes is a river located in Gabes, Tunisia. It offers natural beauty and is a popular spot for locals and tourists alike. The river is surrounded by lush greenery and is a great place to relax and enjoy the scenery. Oued de Gabes is also a popular spot for fishing and birdwatching.</t>
         </is>
       </c>
     </row>
@@ -3419,9 +3391,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out elGualta. 
-This top-rated destination is perfect for Lac lovers and offers a range of categories to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>ElGualta is a lake located in Gabes, Tunisia. It is approximately 3980 meters in size and has an average rating of 3.0 stars. The main category of ElGualta is Lac.</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3498,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out ATLAS World located at ATLAS World, km4 Rte de Gabes, Sfax. This top-rated destination is perfect for Parc de loisirs lovers and offers a range of Parc de loisirs to choose from. With a rating of 3.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.atlasworldsfax.com/ or call them at 23 003 004.</t>
+          <t>ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3597,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for something fun to do, check out Ras El Oueed located at Ras El Oueed, Zoo Chenenni, Gabes. This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 33.87861, 10.0618. For more details, visit their website at https://www.google.com/maps/place/Ras+El+Oueed/data=!4m7!3m6!1s0x125571b3cf9092bd:0x1973856a53a8e8d9!8m2!3d33.8664717!4d10.0450059!16s%2Fg%2F11c2q3h_66!19sChIJvZKQz7NxVRIR2eioU2qFcxk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3692,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a fun attraction, check out Mchergui farm located at Rue de l'oasis. This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. With a rating of 4.7, it's a must-visit spot with many positive guest reviews mentioning "experience". The link to their website isn't available but you can get more details or call them at for more information.</t>
+          <t>Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3787,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a quality supermarket, check out Tunisie,Gabes located at W422+M4F Tunisie,Gabes, Gabes. This top-rated destination is perfect for grocery enthusiasts and offers a range of products to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Tunisie,Gab%C3%A8s/data=!4m7!3m6!1s0x12556f0db6babfc1:0xfe70f6706e25fc6c!8m2!3d33.9016819!4d10.1002814!16s%2Fg%2F11tmxhx177!19sChIJwb-6tg1vVRIRbPwlbnD2cP4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3890,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated Cafe, check out Le Sky Cafe Lounge located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes. This popular destination offers a range of categories like Cafe and Bar lounge to choose from. With a rating of 4.0 based on 64 reviews, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/Le+Sky+Caf%C3%A9+Lounge/data=!4m7!3m6!1s0x12556fa313e84d3d:0x728a5ea8ee08df03!8m2!3d33.8883339!4d10.1160971!16s%2Fg%2F1ptv_zkgs!19sChIJPU3oE6NvVRIRA98I7qheinI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 070 722.</t>
+          <t>Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.</t>
         </is>
       </c>
     </row>
@@ -4019,7 +3989,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a delicious meal, check out My House Lounge located at V3HR+QMP My House Lounge. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4092,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a delicious pizza, check out Pronto Pizza located at V3HV+FQH Pronto pizza, Gabes. This top-rated pizzeria is perfect for pizza lovers and offers a range of pizzas to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website or call them at 51 800 001.</t>
+          <t>Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4195,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to eat, check out Restaurant Fruit De Mer located at Restaurant Fruit De Mer, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:15-23:00, but closed on . To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>Restaurant Fruit De Mer is located in Gabes with the coordinates (33.8776521, 10.092417) and serves a variety of seafood dishes. Based on customer reviews, the restaurant is particularly known for its reasonable prices, fresh fish options, attentive service, and family-friendly atmosphere.</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4302,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great dining experience, check out Le 52 located at Le 52, 52 shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba, Gabes 6000. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 33.887350025839, 10.109272723559. For more details, visit their website at https://www.facebook.com/RestoLe52/ or call them at 46 525 252.</t>
+          <t>Le 52 is a restaurant located in Gabes, Tunisia. It offers a variety of dishes including pizza, pasta, and meat dishes. The restaurant has received positive reviews for its food and service. It is closed on Sundays and is open from 12:00 PM to 10:00 PM on all other days of the week.</t>
         </is>
       </c>
     </row>
@@ -4435,9 +4405,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a place to eat, check out PALAIS D'OR located at V4M4+WQW PALAIS D'OR, Gabes. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on . To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website or call them at 75 238 240.</t>
+          <t>PALAIS D'OR. Restaurant located in Gabes, Tunisia (33.8776521, 10.092417), specialized in Plat.. Contact the restaurant at: +21675238240.</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4512,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're searching for a must-visit dining destination in Gabes, look no further than Restaurant La Luna Italien Gabes located at 21 Av. Farhat Hachad - shr` frHt Hshd. This top-rated restaurant holds a rating of 4.2 and welcomes patrons 24 hours a day. With its focus on Restaurant cuisine, it offers a delectable range of dining options to choose from. For additional information, visit their website at https://fr-fr.facebook.com/RestaurantLaLuna%3Ffilter%3D3 or contact them via phone at 23 805 263.</t>
+          <t>Restaurant La Luna Italien Gabes, a highly rated (4.2/5) eatery with a 24/7 opening policy, is situated in the bustling city of Gabes, Tunisia. Nestled in the heart of 21 Av. Farhat Hachad - shr` frHt Hshd, the establishment is easily accessible to locals and visitors alike. Boasting a delectable menu and a cozy ambiance, the restaurant specializes in Italian cuisine, promising an unforgettable culinary experience.</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4615,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a great place to relax, Le Sky Cafe Lounge is the perfect spot. Located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, this popular destination boasts a 4.0-star rating and offers a cozy atmosphere for enjoying a cup of coffee or catching up with friends. With its convenient hours of operation from 08:00-22:00, you can unwind and enjoy a break from the hustle and bustle of the city. For more information, visit their website or give them a call at 22 070 722.</t>
+          <t>Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.</t>
         </is>
       </c>
     </row>
@@ -4746,9 +4714,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for something fun to do, check out My House Lounge located at V3HR+QMP My House Lounge. 
-This top-rated destination is perfect for Cafe et restaurant de grillades and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .</t>
         </is>
       </c>
     </row>
@@ -4847,8 +4813,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a delicious Italian meal, look no further than Restaurant Pizzeria Pino. Located at 144 shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba, this top-rated destination is perfect for those who love Italian cuisine. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: (33.887350025839, 10.109272723559). For more details, visit their website or call them at 75 272 010.</t>
+          <t>Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4916,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great Restaurant experience, check out Restaurant Palais de la mer located at V4V7+GW3 Restaurant Palais de la mer, Av.Habib Thameur, Gabes. This top-rated destination is perfect for those who love Restaurant and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:30-23:30, but closed on []. To get there, use these GPS coordinates: 33.88997552981, 10.112436063016. For more details, visit their website at  or call them at 75 271 142.</t>
+          <t>Restaurant Palais de la mer is a restaurant located in Gabes, Tunisia with coordinates (33.88997552981, 10.112436063016). This restaurant offers seafood specialties, as indicated by the keyword "poisson" appearing in customer reviews.</t>
         </is>
       </c>
     </row>
@@ -5054,9 +5019,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Restaurant le roi bleu located at 27 Avenue Mongi Slim. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-16:00, 18:00-21:00, but closed on samedi. To get there, use these GPS coordinates: 33.884506881014, 10.1023851976. For more details, visit their link at https://www.google.com/maps/place/Restaurant+le+roi+bleu/data=!4m7!3m6!1s0x12556f4c9adc4ac7:0x467e0a3ab30abfb5!8m2!3d33.8847659!4d10.1023035!16s%2Fg%2F11s0y_s2ft!19sChIJx0rcmkxvVRIRtb8KszoKfkY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 896 185.</t>
+          <t>Restaurant le roi bleu is a restaurant located in Gabes, Tunisia, at the coordinates (33.884506881014, 10.1023851976). It is open from 12:00-16:00 and 18:00-21:00, and is closed on Saturdays. The restaurant has a rating of 4.5 stars on Google, and offers a wide variety of dishes.</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5122,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great pizzeria, check out BIBO located at Rue Ibn Khaldoun. This top-rated destination is perfect for pizza lovers and offers a range of pizzas to choose from. With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 33.86387169541, 10.113266931251. For more details, visit their website or call them at 58 999 100.</t>
+          <t>BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5225,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Montazah Chems (CIEL) located at Montazah Chems (CIEL), mntzh lshms bnzl lshms mn jh@ nzl lwH@, Av.Habib Thameur, Gabes 6000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Centre aere et de loisirs pour enfants, Salon de the to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:15-01:00. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website or call them at 24 858 757.</t>
+          <t>**Montazah Chems** is a restaurant located in Gabes, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located in a convenient location, close to the city center and many of the city's attractions. It has a 4.0 rating on Google, based on 20 reviews, and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5328,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you find yourself in the city of gabes and seeking a delightful experience, drop by Golf Beach gabes located at Golf Beach gabes, Gabes Gabes plage Gabes sud, 6000. With a superb rating of 4.7 and a focus on Cafe, it's a popular destination among those who share this passion. You can visit them anytime as they are open 24 hours a day, 7 days a week. To reach Golf Beach gabes, you can use these GPS coordinates: (33.8702921, 10.1094721). For further details, you can contact them at 29 148 443.</t>
+          <t>Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5423,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out the Restaurant Sahlouba located at V3MR+F4H Restaurant Sahlouba, Gabes. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.8, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Sahlouba/data=!4m7!3m6!1s0x12556fda99000d7b:0x73f82e86f4c84586!8m2!3d33.8836788!4d10.0903697!16s%2Fg%2F11dfr22p8d!19sChIJew0AmdpvVRIRhkXI9IYu-HM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>Restaurant Sahlouba is a highly-rated (4.8/5) restaurant located in Gabes, Tunisia. It specializes in sandwiches, with reviewers particularly praising their delicious offerings. The restaurant can be found at coordinates (33.8776521, 10.092417) and is accessible via the provided link.</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5522,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Discover Le grain de cafe, a top-rated Cafeteria located at Rue Boulbaba Mrabet, Gabes. With a remarkable rating of 4.8, it's a must-visit spot for coffee lovers. Operating hours are from 06:30 to 22:00, ensuring ample time to indulge in your caffeine fix. For more information, explore their website at [website link] or directly contact them at the provided phone number.</t>
+          <t>"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5625,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a top-rated Creperie, Chez mon ex is a must-visit spot. Located at Chez mon ex, it's open from 10:30-23:00 during the week but closed on Sundays. With a 4.8 rating, this top destination is perfect for Creperie lovers. For more information, call 53 000 551.</t>
+          <t>Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5728,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a top-notch diner experience, head to Cafe-Restaurant Chems at V4Q8+X82. This highly-rated destination with a 4.6 rating has been delighting locals and visitors alike with its delectable cuisine and friendly service. It is open daily from 07:45 AM to 11:25 PM. For more information, visit their website or give them a call at 22 851 403.</t>
+          <t>Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -5868,7 +5831,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out FRESCO-GABES located at FRESCO-GABES, Gabes. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website or call them at 26 129 127.</t>
+          <t>FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5930,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to eat, check out La Fiesta located at V4P3+XX9 La Fiesta, shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 33.841505750435, 10.117775925957. For more details, visit their website at https://www.google.com/maps/place/La+Fiesta/data=!4m7!3m6!1s0x12556fbf332dff43:0xcb2a07bedc15f603!8m2!3d33.8874204!4d10.1049963!16s%2Fg%2F11g_93t95!19sChIJQ_8tM79vVRIRA_YV3L4HKss?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>La Fiesta, located in Gabes, Tunisia, is a highly-rated (4.9 stars) restaurant known for its exceptional pizzas. Operating from 10:00 AM to 10:00 PM daily, except for Sundays, La Fiesta is conveniently situated at V4P3+XX9 La Fiesta, shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba.</t>
         </is>
       </c>
     </row>
@@ -6070,11 +6033,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a tasty fast food spot, head to el ksour located at V3PV+2PP el ksour. 
-This top-rated destination is perfect for fast food lovers and offers a variety of options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:30. 
-To get there, use these GPS coordinates: 33.8776521, 10.092417. 
-For more details, visit their website at https://www.google.com/maps/place/el+ksour/data=!4m7!3m6!1s0x12556f89e84c199d:0x9b2eb6711b2c44d5!8m2!3d33.8850961!4d10.0943258!16s%2Fg%2F11qh8rggnm!19sChIJnRlM6IlvVRIR1UQsG3G2Lps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 761 469.</t>
+          <t>el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6136,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Pizza Chamchat located at V3HR+8WX Pizza Chamchat, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on []. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website or call them at 28 543 843.</t>
+          <t>Pizza Chamchat is a restaurant located in Gabes, Tunisia, offering a variety of dishes. It is situated at coordinates (33.8776521, 10.092417) and is open from Monday to Sunday from 10:00 AM to 22:00 PM. With a rating of 4.4, this restaurant has received positive feedback from customers.</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6239,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in Gabes and craving some delicious food, head to Sami Restaurant Turc mT`m trky. This top-rated restaurant is perfect for Restaurant lovers, serving up a range of delectable dishes. With a rating of 4.7, it's a must-visit spot. It's open from 11:00-22:00 during the week, but closed on Sundays. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more information, visit their website or call them at 58 661 263.</t>
+          <t>Sami Restaurant Turc is a Turkish restaurant located in Gabes, Tunisia. It has a 4.7 rating on Google and is open from 11:00 to 22:00 during the week, but is closed on Sundays. The restaurant is known for its traditional Turkish cuisine and has received positive reviews for its food and service.</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6338,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in gabes and searching for a Restaurant spot, visit Chapati Mahdia at V3PW+22Q Chapati Mahdia, Av. Farhat Hachad - shr` frHt Hshd. This 4.5-rated destination is perfect for Restaurant lovers. It's open during these hours: 09:00-19:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, click https://www.google.com/maps/place/Chapati+Mahdia/data=!4m7!3m6!1s0x12556fc5a92bfbd3:0x47e373254a969981!8m2!3d33.8850788!4d10.0951049!16s%2Fg%2F11dfjy_8k8!19sChIJ0_srqcVvVRIRgZmWSiVz40c?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Chapati Mahdia**, located in Gabes (lat: 33.8776521, lon: 10.092417), is a highly-rated (4.5 stars from 6 reviews) restaurant that operates from 09:00 to 19:00 every day of the week. It specializes in providing a dining experience with its main category being Restaurant and its only subcategory being Restaurant.</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6441,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Chez Kayran. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-13:00, but closed on []. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at [nan] or call them at 23 421 773.</t>
+          <t>Chez Kayran is a 4.7-rated restaurant in Gabes, Tunisia, located at coordinates (33.8776521, 10.092417). It is open from 6:00 AM to 1:00 PM, and offers a varied menu not specified in the provided information.</t>
         </is>
       </c>
     </row>
@@ -6581,10 +6540,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Restaurant RAPIDO located at V3PR+2J8 Restaurant RAPIDO, Gabes. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417. 
-For more details, visit their link at https://www.google.com/maps/place/Restaurant+RAPIDO/data=!4m7!3m6!1s0x12556f90cc28d653:0xab428a1510f23f46!8m2!3d33.8850482!4d10.0915903!16s%2Fg%2F11fct8gl1j!19sChIJU9YozJBvVRIRRj_yEBWKQqs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 404 458.</t>
+          <t>Restaurant RAPIDO is a restaurant located in Gabes at the coordinates (33.8776521, 10.092417). It has a rating of 4.6 out of 5 and offers a variety of dining options. The restaurant is open 7 days a week and offers takeout and delivery services.</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6643,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Le Royal Gabes located at Le Royal Gabes, Ctre de Visite Technique de Gabes, Bouchamma. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 33.90248, 10.05976. For more details, visit their website at https://www.google.com/maps/place/Le+Royal+Gabes/data=!4m7!3m6!1s0x12556f965c167c35:0xb6ad953e2c36e4cc!8m2!3d33.8948132!4d10.1103909!16s%2Fg%2F11c54nrvdh!19sChIJNXwWXJZvVRIRzOQ2LD6VrbY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 099 695.</t>
+          <t>Le Royal Gabes is a popular restaurant in Gabes, Tunisia. Located in Ctre de Visite Technique de Gabes, Bouchamma, it is well-rated with a 5.0 score on Google Maps. The restaurant primarily serves as a restaurant, offering a delightful dining experience. Its working hours are from 11:00 AM to 11:00 PM, and it remains closed on specific days of the week. You can contact them at 99 099 695 for inquiries or reservations.</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6746,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a delicious meal, check out Baniola creperie by RoO at V4M2+VWW. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/Baniola+creperie+by+RoO/data=!4m7!3m6!1s0x12556fc79d20e43d:0x841adb0cb126223e!8m2!3d33.8847461!4d10.10233!16s%2Fg%2F11hblxww2m!19sChIJPeQgncdvVRIRPiImsQzbGoQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 361 854.</t>
+          <t>Baniola creperie by RoO, located in Gabes (33.8776521, 10.092417), is a highly-rated restaurant (5.0 stars from 3 reviews) specializing in crepes. With its workday hours from 8 am to midnight, Baniola creperie by RoO offers a convenient dining experience for both breakfast and dinner.</t>
         </is>
       </c>
     </row>
@@ -6893,9 +6849,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for something fun to do, check out O'TAKE located at Rue tayeb mhiri. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 33.8838235, 10.1011829. For more details, visit their website at https://www.google.com/maps/place/O%27TAK%C3%89/data=!4m7!3m6!1s0x12556fbdfc26bc4b:0x4abf134d321ff9d0!8m2!3d33.879516!4d10.0979621!16s%2Fg%2F11tbwhk1x6!19sChIJS7wm_L1vVRIR0PkfMk0Tv0o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 271 286.</t>
+          <t>O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6948,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a delightful dining experience, check out Kessa Sandwich located at V3PW+4FG Kessa Sandwich, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:30-22:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their link at https://www.google.com/maps/place/Kessa+Sandwich/data=!4m7!3m6!1s0x12556fc5ca8447e5:0x51f3144c9053d0b6!8m2!3d33.8853035!4d10.0962045!16s%2Fg%2F11d_csyjps!19sChIJ5UeEysVvVRIRttBTkEwU81E?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Kessa Sandwich is a restaurant located in Gabes, Tunisia. It is a highly-rated restaurant with a 4.0 rating on Google. The restaurant is open daily from 9:30 AM to 10:00 PM and offers a variety of dishes. Kessa Sandwich is located at V3PW+4FG Kessa Sandwich, Gabes, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7055,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out So Sweet located at 6011, So Sweet, nhj l`rwsy Hdd, Gabes. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-03:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.facebook.com/So.SweetISETGabes/ or call them at 26 021 221.</t>
+          <t>So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7158,9 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Restaurant Pizzeria La Perla mT`m llw'lw'@ located at V4Q2+3G9 Restaurant Pizzeria La Perla mT`m llw'lw'@, shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba, Gabes 6000. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Pizzeria+La+Perla+%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D9%84%D8%A4%D9%84%D8%A4%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12556fc73367f2f9:0x87a6da101ffce5b0!8m2!3d33.8876736!4d10.1013447!16s%2Fg%2F11c5b33s68!19sChIJ-fJnM8dvVRIRsOX8HxDapoc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 452 275.</t>
+          <t>Restaurant Pizzeria La Perla is a restaurant located in Gabes, Tunisia (33.8759875, 10.0929339). 
+It has a rating of 4.3 out of 5 and is open from 11:00 to 22:00, except on Sundays. 
+The restaurant offers a variety of dishes and has a featured image of a pizza.</t>
         </is>
       </c>
     </row>
@@ -7303,7 +7259,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Cafe Les 4 Saisons located at Rue Maarifa, Gabes. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.883678857736, 10.092652406397.</t>
+          <t>Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.</t>
         </is>
       </c>
     </row>
@@ -7402,9 +7358,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in Gabes and in search of a great Restaurant experience, look no further than By Omar Coffee lounge, located at V3JR+4W4, Gabes. 
-This top-rated spot is perfect for Restaurant enthusiasts and scored an impressive 5.0 rating. Calling at 28 738 719 will connect you directly to the establishment. 
-For further details, feel free to visit their website or use the provided GPS coordinates to get there easily: 33.8776521, 10.092417.</t>
+          <t>Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.</t>
         </is>
       </c>
     </row>
@@ -7503,8 +7457,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in Gabes, head over to CUBYGLACONS located at 42 RUE KSANTINA. 
-Famous for sundae, it's a top-rated hotspot with a rating of 5.0. Open between 07:00-21:00, you can call them at 24 910 887 for any queries</t>
+          <t>CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7560,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to eat, check out TARTOUGA located at V3HR+QGR TARTOUGA, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/TARTOUGA/data=!4m7!3m6!1s0x12556fe2c2efbf37:0x28ef41cd16c0c5f5!8m2!3d33.8794874!4d10.0912749!16s%2Fg%2F11gv03l6dz!19sChIJN7_vwuJvVRIR9cXAFs1B7yg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 232 549.</t>
+          <t>TARTOUGA, a restaurant in Gabès (Tunisia), is rated 4 out of 5 stars on Google by 1 reviewer. Located at coordinates (33.8776521, 10.092417), it is open from 10:00 AM to 11:00 PM.</t>
         </is>
       </c>
     </row>
@@ -7702,7 +7655,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out food club Gabes located at V4P4+2GQ food club Gabes, nhj lmqwmyn, Gabes. This top-rated destination is perfect for Pizzeria lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7758,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in Gabes and seeking a delicious dining experience, CONSERVERIE GABES TIC TAC is a highly recommended restaurant located at V475+67P CONSERVERIE GABES TIC TAC, Av. Abou El Kacem Chebbi, Gabes. It has earned a superb rating of 5.0, making it a must-try destination. The restaurant is open from 09:00 to 19:00 during weekdays and welcomes you to savor its culinary delights. For more information, please visit their website or contact them at 50 501 722.</t>
+          <t>CONSERVERIE GABES TIC TAC is a restaurant located in Gabes, Tunisia. The restaurant is open from 09:00 to 19:00 and is closed on Fridays. The restaurant has a rating of 5.0 and is located at the coordinates (33.8776521, 10.092417).</t>
         </is>
       </c>
     </row>
@@ -7904,9 +7857,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a good place to eat, check out Restaurant Loasis Gabes located at V3PX+59C Restaurant Loasis Gabes, Av. Farhat Hachad - shr` frHt Hshd, Gabes. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, call them at 75 273 087.</t>
+          <t>Restaurant Loasis Gabes is a restaurant located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417). The restaurant offers a variety of dishes and is rated 4.0 out of 5 stars by its customers. It is open every day except for Sunday and Monday.</t>
         </is>
       </c>
     </row>
@@ -8005,7 +7956,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Cafe resto le prince located at PX8G+X53 Cafe resto le prince, Rte de Gabes, Kebili. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website or call them at 98 435 177.</t>
+          <t>Cafe Resto Le Prince is a restaurant in Gabes, Tunisia, with a rating of 4.3 out of 5 based on 7 reviews. Its exact location is 33.7053164, 8.9659272. The restaurant offers a variety of dishes and has a cozy ambiance. It is a great place to enjoy a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -8100,7 +8051,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Pizza pesto located at 9F2P+672 Pizza pesto, Rue de Gabes, Medenine. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website</t>
+          <t>Pizza Pesto is a 4-star rated restaurant located in the city of Gabès, Tunisia at the coordinates (33.3497059, 10.4863079). Featuring a main category of Restaurant, it also offers a variety of cuisines, with 3 reviews to its name.</t>
         </is>
       </c>
     </row>
@@ -8195,8 +8146,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great Creperie, check out la crepe rit located at route de gabes km2. 
-This top-rated destination has a rating of 5.0. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/la+cr%C3%AApe+rit/data=!4m7!3m6!1s0x1255295bd4d04013:0x138e2052b784acb3!8m2!3d33.363532!4d10.463694!16s%2Fg%2F11j22yzn3j!19sChIJE0DQ1FspVRIRs6yEt1IgjhM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8249,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to eat, check out Piccolino located at Rue de Bizerte, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-23:45. To get there, use these GPS coordinates: 33.887314892123, 10.097416422319. For more details, visit their website at https://www.google.com/maps/place/Piccolino/data=!4m7!3m6!1s0x12e31fecc36ef0e1:0xaf4c45e81e1846d0!8m2!3d37.2969052!4d9.8665507!16s%2Fg%2F11fn9_n2ky!19sChIJ4fBuw-wf4xIR0EYYHuhFTK8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 359 103.</t>
+          <t>Piccolino is a restaurant located in Gabes, Tunisia, offering a diverse menu including pizzas, burgers, salads, and seafood dishes. Situated at 7VW8+QJ7 Rue de Bizerte, it operates daily from 7 AM to 11:45 PM. With a rating of 4.1 based on 136 reviews, it is known for its reasonable prices, attentive service, and delicious sauces.</t>
         </is>
       </c>
     </row>
@@ -8404,11 +8354,7 @@
           <t>gabes</t>
         </is>
       </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>If you're in gabes and looking for a reliable stop, check out TotalEnergies - GABES located at Route de Tunis, Chenini Nahal. This top-rated destination is perfect for Station-service lovers and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.8603277, 10.1270737. For more details, visit their website at https://services.totalenergies.tn/ or call them at 75 350 017.</t>
-        </is>
-      </c>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8501,8 +8447,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a reliable station, check out Staroil Gabes located at V3RH+FQ9 Staroil Gabes, Chenini Nahal. 
-This top-rated destination is perfect for station lovers and has a rating of 5.0, making it a must-visit spot. For more details, visit their website at  https://www.google.com/maps/place/Staroil+Gabes/data=!4m7!3m6!1s0x1255702094f0b715:0xb771a54f2bcab786!8m2!3d33.8911632!4d10.0794813!16s%2Fg%2F11f53yrjp0!19sChIJFbfwlCBwVRIRhrfKK0-lcbc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Staroil Gabes is a gas station located in Chenini Nahal, Gabes, Tunisia. It offers fuel, lubricants, and other automotive services. The gas station is well-rated by customers, with an average rating of 5.0 out of 5.0. It is located at latitude 33.8976989 and longitude 10.0824252.</t>
         </is>
       </c>
     </row>
@@ -8609,7 +8554,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a reliable train station, check out Gare de Gabes located at Avenue Mongi Slim. This top-rated destination is perfect for travelers seeking a convenient transportation hub. With a rating of 3.2, it's a must-visit spot open 24 hours a day. For more details, visit their website at http://www.sncft.com.tn/. or call them at 75 274 248.</t>
+          <t>The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.</t>
         </is>
       </c>
     </row>
@@ -8696,8 +8641,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a transportation company, check out Station Bus Gabes located at V3JP+WG2 Station Bus Gabes, Av.de la Republique - shr` ljumhwryW@, Gabes. 
-With a rating of 2.8, it's a must-visit spot. It's open 24/7. For more details, visit their website at https://www.google.com/maps/place/Station+Bus+Gabes/data=!4m7!3m6!1s0x12556fd74ad8dbc7:0x6955b44e8917a6b5!8m2!3d33.8822654!4d10.0862649!16s%2Fg%2F11dx9dhz94!19sChIJx9vYStdvVRIRtaYXiU60VWk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Bus Gabes is a bus station located on Av.de la Republique in Gabes, Tunisia. It offers bus services to various destinations in the region. The bus station has a rating of 2.8 based on 28 reviews.</t>
         </is>
       </c>
     </row>
@@ -8792,7 +8736,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Gabes located at Avenue Mongi Slim. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.1, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gabes/data=!4m7!3m6!1s0x12556fc671c21183:0xaa3dd00b07bd7aee!8m2!3d33.8843785!4d10.0993771!16s%2Fg%2F1tz7qyyh!19sChIJgxHCccZvVRIR7nq9BwvQPao?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.</t>
         </is>
       </c>
     </row>
@@ -8887,7 +8831,8 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a Gare routiere, check out station de lowage et bus GABES located at station de lowage et bus GABES, Av.de la Republique - shr` ljumhwryW@, Gabes. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 2.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.881272555513, 10.090208387711.</t>
+          <t>**Gare routière et de taxi-bus de Gabès**
+Située en bordure de l'Avenue de la République, cette gare routière offre un accès facile au transport en commun pour les habitants et les visiteurs de Gabès. Elle propose des services de lowage (taxi-bus) vers diverses destinations de la région, ainsi que des liaisons par bus longue distance. La gare dispose d'une grande cour pour le stationnement des véhicules. Sa cote de 2,8 sur 5 étoiles reflète un niveau de satisfaction moyen parmi les utilisateurs.</t>
         </is>
       </c>
     </row>
@@ -8982,7 +8927,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a reliable gas station, check out AGIL. This top-rated destination is perfect for those looking to refuel their vehicles and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot for all your gas station needs. Its address is V3MP+HCG AGIL, and coordinates are (33.8962351, 9.811008). For more details, visit their website at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -9077,7 +9022,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a reliable gas station, look no further than Station service Agil GABES VILLE, located on Rue El Hbib Chagra. This highly-rated spot has a rating of 4.1 and offers all the essential services you need. It's open 24/7, so you can refuel your vehicle anytime. To get there, use the GPS coordinates: (33.8759875, 10.0929339).</t>
+          <t>Station service Agil GABES VILLE is a gas station located in Gabes, Tunisia. It offers a variety of services to its customers, including gasoline, diesel, and car wash. The station is conveniently located near several major roads, making it easy to access.</t>
         </is>
       </c>
     </row>
@@ -9176,9 +9121,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking to refuel, check out Station de louage Matmata located at V3MR+W87 Station de louage Matmata, Gabes. 
-This highly-rated station is perfect for drivers and offers a range of services to choose from. 
-With a rating of 3.0, it's a must-visit spot. It's open during these hours: 06:00-17:00. To get there, use these GPS coordinates: 33.8894028, 9.8000244.</t>
+          <t>The Station de louage Matmata is a gas station located in Gabes, Tunisia, at the coordinates (33.8894028, 9.8000244). It offers various services, including fuel, oil changes, and tire repairs. The station is open from 6:00 AM to 5:00 PM and is closed on weekends.</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9228,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a convenient stop, check out Shell located on Av. Farhat Hachad - shr` frHt Hshd. This top-rated station is perfect for those who need to refuel their vehicles and offers a range of services to choose from, including a car wash and a mini-market. With a rating of 3.2, it's a highly recommended spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.8759875, 10.0929339.</t>
+          <t>Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9323,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in Gabes looking for a bus station, check out Station Bus 1 et 6 located at Station Bus 1 et 6, Gabes. This top-rated destination is perfect for bus station lovers and offers a range of categories to choose from. With a rating of 2.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.7222643, 10.1675788. For more details, visit their website at https://www.google.com/maps/place/Station+Bus+1+et+6/data=!4m7!3m6!1s0x12556fce1dd4b885:0x1aa8b9f691a0fae5!8m2!3d33.8784993!4d10.0920957!16s%2Fg%2F1q5gm4bf1!19sChIJhbjUHc5vVRIR5fqgkfa5qBo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Bus 1 et 6 is a bus station situated in Gabes, Tunisia. With a rating of 2.8 out of 5, this public transport hub offers connections to various destinations. Located at 36.7222643 longitude and 10.1675788 latitude, the station provides a convenient gateway for travelers seeking efficient and affordable transportation options.</t>
         </is>
       </c>
     </row>
@@ -9475,7 +9418,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a reliable gas station nearby, make sure to check out Staroil Gabes. Located at V3RH+FQ9 Staroil Gabes, Chenini Nahal, they're highly-rated and offer top-notch services for all your fueling needs. With a rating of 5 stars, you can be sure you're getting the best. For more details, visit the link https://www.google.com/maps/place/Staroil+Gabes/data=!4m7!3m6!1s0x1255702094f0b715:0xb771a54f2bcab786!8m2!3d33.8911632!4d10.0794813!16s%2Fg%2F11f53yrjp0!19sChIJFbfwlCBwVRIRhrfKK0-lcbc?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9509,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a reliable station, check out Station louage located at V4F2+35V Station louage. This popular destination is perfect for anyone in need of gas and offers a range of services to choose from. With a rating of 3.0, it's a must-visit spot for locals and travelers alike. To get there, use these GPS coordinates: 33.8894028, 9.8000244.</t>
+          <t>Station louage is a gas station located in Gabes, Tunisia. It offers fuel services and is conveniently positioned at the following coordinates (33.8894028, 9.8000244), making it easily accessible to the local community and travelers alike.</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9604,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in gabes and searching for where you can catch a bus, mHT@ lHflt - Hdyq@ 2 mrs is one of the best bus stops situated on the Avenue Mongi Slim. It has been rated a 2.7 by 3 users. Their GPS coordinates for easier navigation are (33.884506881014, 10.1023851976).</t>
+          <t>This bus stop is located on Avenue Mongi Slim in Gabes, Tunisia. It has a 2.7-star rating on Google Maps, based on 3 reviews. It is one of the main stops in the city, and is a convenient way to get around. The stop is located near several shops and restaurants, making it a great place to take a break and have a bite to eat.</t>
         </is>
       </c>
     </row>
@@ -9764,7 +9707,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in Gabes and in search of a reliable fuel station, visit Station de taxi Chenini at V3MQ+3PV Station de taxi Chenini, Gabes. With a 4.0-star rating, this top-rated spot is ideal for vehicle owners. Operating hours are from 6 AM to 6 PM on weekdays. To reach the station, utilize the GPS coordinates: (33.87861, 10.0618). For further information, contact them at 52 684 125.</t>
+          <t>Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.</t>
         </is>
       </c>
     </row>
@@ -9859,7 +9802,8 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Arret l'artisanat located at Av. Farhat Hachad - shr` frHt Hshd, Gabes 6000. This top-rated destination is perfect for Arret de transports en commun lovers and offers a range of Arret de transports en commun to choose from. With a rating of 3.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at or call them at .</t>
+          <t>**Arrêt l'Artisanat**
+Located at Av. Farhat Hachad in Gabes, Arrêt l'Artisanat is a public transportation stop offering convenient access to the city's transit system. While not much descriptive information is available, its location makes it a practical choice for commuters and visitors navigating the area.</t>
         </is>
       </c>
     </row>
@@ -9954,8 +9898,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Station Bus 1 et 6 located at Avenue Mongi Slim, Gabes. 
-This top-rated destination is perfect for Gare routiere lovers. With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.884506881014, 10.1023851976. For more details, visit their link at https://www.google.com/maps/place/Station+Bus+1+et+6/data=!4m7!3m6!1s0x12556fc5d1983509:0x46ec917e2843f250!8m2!3d33.8849413!4d10.0969586!16s%2Fg%2F1q5gkmb04!19sChIJCTWY0cVvVRIRUPJDKH6R7EY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Bus 1 et 6 is a bus station located in Avenue Mongi Slim, Gabes. It is easily accessible by car and public transportation. The station offers a variety of services to travelers, including ticket sales, baggage storage, and currency exchange. It is also a convenient starting point for exploring the city of Gabes.</t>
         </is>
       </c>
     </row>
@@ -10054,7 +9997,8 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in gabes and seeking a top-notch Station-service, check out Gare Medou Matmata located at Avenue Bechir El Jaziri - shr` lbshyr ljzyry, Gabes. It boasts a 5.0 rating and offers a range of services. Call them at 97 568 696 for more details or navigate using these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.</t>
         </is>
       </c>
     </row>
@@ -10149,7 +10093,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated Station-service, check out Radio elyssa located at Radio elyssa, teboulbou , Gabes, France, 6000. This must-visit spot has a rating of 5.0. To get there, use these GPS coordinates: 43.7034285, 7.2661312. For more details, visit their website at https://www.google.com/maps/place/Radio+elyssa/data=!4m7!3m6!1s0x12556f8ce5d9fa33:0x22d4bed3aae0af5d!8m2!3d33.8530342!4d10.1073907!16s%2Fg%2F11qpph6cc_!19sChIJM_rZ5YxvVRIRXa_gqtO-1CI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10184,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in gabes, Gare routiere de Kebili located at Route de Gabes, P16, 4200 is a great spot for Gare routiere lovers. With a rating of 3.4, it's a popular choice among locals and travelers alike. To get there, use these GPS coordinates: 33.7261487, 8.9802199.</t>
+          <t>The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -10335,9 +10279,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Station de Taxis direction Aeroport et Gabes located at PQM6+23J Station de Taxis direction Aeroport et Gabes, Rue de Kairouan. 
-This top-rated destination is perfect for Station de taxis lovers. 
-With a rating of 3.8, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: (34.731195787043, 10.761249591704). For more details, visit their website at or call them at .</t>
+          <t>Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).</t>
         </is>
       </c>
     </row>
